--- a/petrinet.xlsx
+++ b/petrinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\hobby\vuz\matmod\PR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0633693-88D3-4DC6-A017-4295CD461F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE38F5-4480-4D87-8361-6D5C63B810FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32715" yWindow="2115" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
